--- a/SP_Medical_Group/SP_Medical_Group-Físico.xlsx
+++ b/SP_Medical_Group/SP_Medical_Group-Físico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Desktop\Senai\Sprint1_bd\Sprint1_bd\SP_Medical_Group\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AA43C3-C5EC-4997-97F9-1EA8F578E889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2852FDD6-C28F-4A15-891F-571FF4FE2601}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25F34BA9-A91E-43F4-80BD-EDD30162F989}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="19680" windowHeight="11385" xr2:uid="{25F34BA9-A91E-43F4-80BD-EDD30162F989}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -600,33 +600,6 @@
     <xf numFmtId="20" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -649,9 +622,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,6 +641,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76134D84-DFD8-4953-B0B3-558903EDFA66}">
   <dimension ref="A2:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,16 +1007,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="D2" s="19" t="s">
+      <c r="A2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="D2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1051,7 +1051,7 @@
       <c r="E4" s="5">
         <v>3</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="14" t="s">
         <v>72</v>
       </c>
       <c r="G4" s="5">
@@ -1071,7 +1071,7 @@
       <c r="E5" s="5">
         <v>3</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="14" t="s">
         <v>73</v>
       </c>
       <c r="G5" s="5">
@@ -1091,7 +1091,7 @@
       <c r="E6" s="5">
         <v>3</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="14" t="s">
         <v>74</v>
       </c>
       <c r="G6" s="5">
@@ -1107,7 +1107,7 @@
       <c r="E7" s="5">
         <v>2</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="17" t="s">
         <v>82</v>
       </c>
       <c r="G7" s="5">
@@ -1115,17 +1115,17 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="32"/>
       <c r="D8" s="5">
         <v>5</v>
       </c>
       <c r="E8" s="5">
         <v>2</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="17" t="s">
         <v>83</v>
       </c>
       <c r="G8" s="5">
@@ -1145,7 +1145,7 @@
       <c r="E9" s="5">
         <v>2</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="17" t="s">
         <v>84</v>
       </c>
       <c r="G9" s="5">
@@ -1156,7 +1156,7 @@
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="5">
@@ -1165,7 +1165,7 @@
       <c r="E10" s="5">
         <v>2</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="17" t="s">
         <v>85</v>
       </c>
       <c r="G10" s="5">
@@ -1176,7 +1176,7 @@
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="12" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="5">
@@ -1185,7 +1185,7 @@
       <c r="E11" s="5">
         <v>2</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="17" t="s">
         <v>86</v>
       </c>
       <c r="G11" s="5">
@@ -1196,7 +1196,7 @@
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="5">
@@ -1205,7 +1205,7 @@
       <c r="E12" s="5">
         <v>2</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="17" t="s">
         <v>87</v>
       </c>
       <c r="G12" s="5">
@@ -1216,7 +1216,7 @@
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="5">
@@ -1225,7 +1225,7 @@
       <c r="E13" s="5">
         <v>2</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="18" t="s">
         <v>88</v>
       </c>
       <c r="G13" s="5">
@@ -1236,61 +1236,61 @@
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="24"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>6</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>7</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="J16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="20" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1298,31 +1298,31 @@
       <c r="A17" s="3">
         <v>8</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="20">
         <v>1</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="20">
         <v>4</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="20">
         <v>94839859000</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="21">
         <v>30602</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="J17" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="22" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1330,31 +1330,31 @@
       <c r="A18" s="3">
         <v>9</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="30">
-        <v>2</v>
-      </c>
-      <c r="E18" s="30">
+      <c r="D18" s="20">
+        <v>2</v>
+      </c>
+      <c r="E18" s="20">
         <v>5</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="20">
         <v>73556944057</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="21">
         <v>37095</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="J18" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="K18" s="23" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1362,31 +1362,31 @@
       <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="20">
         <v>3</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="20">
         <v>6</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="G19" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="20">
         <v>16839338002</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="21">
         <v>28773</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="J19" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="K19" s="33" t="s">
+      <c r="K19" s="23" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1394,31 +1394,31 @@
       <c r="A20" s="3">
         <v>11</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="20">
         <v>4</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="20">
         <v>7</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="20">
         <v>14332654765</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="21">
         <v>31333</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="K20" s="33" t="s">
+      <c r="K20" s="23" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1426,31 +1426,31 @@
       <c r="A21" s="3">
         <v>12</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="20">
         <v>5</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="20">
         <v>8</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="20">
         <v>91305348010</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="21">
         <v>27633</v>
       </c>
-      <c r="J21" s="30" t="s">
+      <c r="J21" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="K21" s="23" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1458,31 +1458,31 @@
       <c r="A22" s="3">
         <v>13</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="30">
+      <c r="D22" s="20">
         <v>6</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="20">
         <v>9</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="H22" s="30">
+      <c r="H22" s="20">
         <v>79799299004</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="21">
         <v>26379</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="K22" s="33" t="s">
+      <c r="K22" s="23" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1490,29 +1490,29 @@
       <c r="A23" s="3">
         <v>14</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="20">
         <v>7</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="20">
         <v>10</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="30" t="s">
+      <c r="G23" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="20">
         <v>13771913039</v>
       </c>
-      <c r="I23" s="31">
+      <c r="I23" s="21">
         <v>43164</v>
       </c>
-      <c r="J23" s="34"/>
-      <c r="K23" s="33" t="s">
+      <c r="J23" s="24"/>
+      <c r="K23" s="23" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
       <c r="A24" s="3">
         <v>15</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1528,7 +1528,7 @@
       <c r="A25" s="3">
         <v>16</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1536,19 +1536,19 @@
       <c r="A26" s="3">
         <v>17</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
@@ -1596,13 +1596,13 @@
       <c r="H28" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="13">
         <v>0.33333333333333331</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="13">
         <v>0.75</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="K28" s="19" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1619,10 +1619,10 @@
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="18"/>
+      <c r="B30" s="33"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -1670,14 +1670,14 @@
       <c r="B33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="14"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="29"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -1793,7 +1793,7 @@
       <c r="I39" s="7"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="36"/>
+      <c r="B40" s="26"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
@@ -1802,22 +1802,22 @@
       <c r="I40" s="7"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="36"/>
+      <c r="B41" s="26"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="36"/>
-      <c r="D42" s="15" t="s">
+      <c r="B42" s="26"/>
+      <c r="D42" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="36"/>
+      <c r="B43" s="26"/>
       <c r="D43" s="9" t="s">
         <v>38</v>
       </c>
@@ -1841,13 +1841,13 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="36"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="26"/>
       <c r="D44" s="9">
         <v>1</v>
       </c>
       <c r="E44" s="9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F44" s="9">
         <v>3</v>
@@ -1864,13 +1864,13 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
-      <c r="B45" s="36"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="26"/>
       <c r="D45" s="9">
         <v>2</v>
       </c>
       <c r="E45" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F45" s="9">
         <v>2</v>
@@ -1887,13 +1887,13 @@
       <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="35"/>
-      <c r="B46" s="36"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="26"/>
       <c r="D46" s="9">
         <v>3</v>
       </c>
       <c r="E46" s="9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F46" s="9">
         <v>2</v>
@@ -1910,12 +1910,12 @@
       <c r="J46" s="9"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
+      <c r="A47" s="25"/>
       <c r="D47" s="9">
         <v>4</v>
       </c>
       <c r="E47" s="9">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F47" s="9">
         <v>2</v>
@@ -1932,12 +1932,12 @@
       <c r="J47" s="9"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="35"/>
+      <c r="A48" s="25"/>
       <c r="D48" s="9">
         <v>5</v>
       </c>
       <c r="E48" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F48" s="9">
         <v>1</v>
@@ -1954,12 +1954,12 @@
       <c r="J48" s="9"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="35"/>
+      <c r="A49" s="25"/>
       <c r="D49" s="9">
         <v>6</v>
       </c>
       <c r="E49" s="9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F49" s="9">
         <v>3</v>
@@ -1976,12 +1976,12 @@
       <c r="J49" s="9"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="35"/>
+      <c r="A50" s="25"/>
       <c r="D50" s="9">
         <v>7</v>
       </c>
       <c r="E50" s="9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F50" s="9">
         <v>1</v>
